--- a/SAE_3_01/fichiers necessaires/fichier_vierge.xlsx
+++ b/SAE_3_01/fichiers necessaires/fichier_vierge.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62929CC-361F-4C51-9BC7-A05763EC0E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chihebbradai/Documents/GitHub/SAE-3.01/SAE_3_01/fichiers necessaires/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB2FAC-ABF8-6B41-8F30-CCBD1361CE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="860" windowWidth="30080" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -188,20 +193,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -441,44 +446,44 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +502,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -795,13 +800,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -828,9 +833,9 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -940,19 +945,19 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -961,8 +966,8 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -981,8 +986,8 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1001,8 +1006,8 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1060,7 +1065,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="41.25">
+    <row r="13" spans="1:18" ht="29">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1090,17 +1095,17 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="32"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1114,17 +1119,17 @@
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="35"/>
+      <c r="J15" s="26"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1203,8 +1208,8 @@
       <c r="D19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1225,8 +1230,8 @@
       <c r="D20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="38"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1247,8 +1252,8 @@
       <c r="D21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="38"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1271,8 +1276,8 @@
       <c r="D22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1330,9 +1335,9 @@
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1372,10 +1377,10 @@
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="18"/>
@@ -1394,13 +1399,13 @@
       <c r="A28" s="8"/>
       <c r="B28" s="13"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="38"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="35"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1416,11 +1421,11 @@
       <c r="A29" s="8"/>
       <c r="B29" s="13"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="38"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1436,11 +1441,11 @@
       <c r="A30" s="8"/>
       <c r="B30" s="13"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="38"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1456,11 +1461,11 @@
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1897,10 +1902,10 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="42"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="3" t="s">
         <v>25</v>
       </c>
@@ -1921,43 +1926,43 @@
       <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18" ht="15" customHeight="1">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="44"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="45" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="26" t="s">
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="47"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="50"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" ht="64.5">
-      <c r="A55" s="48"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
+    <row r="55" spans="1:18" ht="68">
+      <c r="A55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="19" t="s">
         <v>3</v>
       </c>
@@ -2015,22 +2020,12 @@
         <v>0</v>
       </c>
       <c r="L56" s="21"/>
-      <c r="M56" s="24">
-        <v>20</v>
-      </c>
+      <c r="M56" s="24"/>
       <c r="N56" s="21"/>
-      <c r="O56" s="24">
-        <v>23</v>
-      </c>
-      <c r="P56" s="22">
-        <v>34.5</v>
-      </c>
-      <c r="Q56" s="23">
-        <v>43</v>
-      </c>
-      <c r="R56" s="23">
-        <v>43</v>
-      </c>
+      <c r="O56" s="24"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="53"/>
@@ -2049,22 +2044,12 @@
         <v>0</v>
       </c>
       <c r="L57" s="21"/>
-      <c r="M57" s="24">
-        <v>20</v>
-      </c>
+      <c r="M57" s="24"/>
       <c r="N57" s="21"/>
-      <c r="O57" s="24">
-        <v>23</v>
-      </c>
-      <c r="P57" s="22">
-        <v>34.5</v>
-      </c>
-      <c r="Q57" s="23">
-        <v>43</v>
-      </c>
-      <c r="R57" s="23">
-        <v>43</v>
-      </c>
+      <c r="O57" s="24"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="55"/>
@@ -2167,10 +2152,10 @@
       <c r="R61" s="1"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="42"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="3" t="s">
         <v>25</v>
       </c>
@@ -2191,43 +2176,43 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="44"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="45" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="26" t="s">
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="47"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="50"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" ht="64.5">
-      <c r="A64" s="48"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
+    <row r="64" spans="1:18" ht="68">
+      <c r="A64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
       <c r="F64" s="19" t="s">
         <v>3</v>
       </c>
@@ -2284,25 +2269,13 @@
       <c r="K65" s="23">
         <v>0</v>
       </c>
-      <c r="L65" s="24">
-        <v>10</v>
-      </c>
-      <c r="M65" s="24">
-        <v>40</v>
-      </c>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
       <c r="N65" s="21"/>
-      <c r="O65" s="24">
-        <v>43</v>
-      </c>
-      <c r="P65" s="22">
-        <v>43</v>
-      </c>
-      <c r="Q65" s="23">
-        <v>98</v>
-      </c>
-      <c r="R65" s="23">
-        <v>98</v>
-      </c>
+      <c r="O65" s="24"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="55"/>
@@ -2396,6 +2369,31 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:H31"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:K54"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B7:L7"/>
@@ -2409,31 +2407,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:H31"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:K54"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="L63:Q63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A63:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
